--- a/AMC_examples_data/AMC_examples_data_ex6.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C37BD058-ADFB-4334-8AAF-BC1527B34447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2344F4-72C7-4105-A1A4-A8A7F39B6C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>frame_h</t>
   </si>
@@ -98,6 +98,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>VQ_best</t>
+  </si>
+  <si>
+    <t>comp_offs_y</t>
+  </si>
+  <si>
+    <t>comp_offs_x</t>
   </si>
 </sst>
 </file>
@@ -449,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F28914-79CE-4C5A-92B2-E41C9BEF8F7E}">
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,9 +471,12 @@
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="10.140625" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
+    <col min="20" max="20" width="11" customWidth="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +531,17 @@
       <c r="S1" t="s">
         <v>19</v>
       </c>
+      <c r="T1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -558,13 +579,13 @@
         <v>3</v>
       </c>
       <c r="M2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N2">
-        <v>-56</v>
+        <v>-32</v>
       </c>
       <c r="O2">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="P2">
         <v>-96</v>
@@ -578,16 +599,25 @@
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>3</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="M3">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="N3">
-        <v>-80</v>
+        <v>-56</v>
       </c>
       <c r="O3">
         <v>48</v>
@@ -601,19 +631,25 @@
       <c r="R3" t="s">
         <v>20</v>
       </c>
+      <c r="U3">
+        <v>99</v>
+      </c>
+      <c r="V3">
+        <v>187</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="M4">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="N4">
-        <v>-32</v>
+        <v>-80</v>
       </c>
       <c r="O4">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="P4">
         <v>-96</v>
@@ -624,13 +660,19 @@
       <c r="R4" t="s">
         <v>20</v>
       </c>
+      <c r="U4">
+        <v>98</v>
+      </c>
+      <c r="V4">
+        <v>186</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>

--- a/AMC_examples_data/AMC_examples_data_ex6.xlsx
+++ b/AMC_examples_data/AMC_examples_data_ex6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\costa\Desktop\5.2\Tesi\git\AMC_Model\AMC_examples_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2344F4-72C7-4105-A1A4-A8A7F39B6C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809AA9F3-15AC-45E0-8D4A-5B0EB4667656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF8BB56-E23A-426B-9D6C-DA86724C81B1}"/>
   </bookViews>
